--- a/Verilog/Thesis_FPGA_Traffic_Light/output_file/Phan_tich.xlsx
+++ b/Verilog/Thesis_FPGA_Traffic_Light/output_file/Phan_tich.xlsx
@@ -12292,11 +12292,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="133989792"/>
-        <c:axId val="378192992"/>
+        <c:axId val="319797136"/>
+        <c:axId val="319798704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133989792"/>
+        <c:axId val="319797136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12356,7 +12356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378192992"/>
+        <c:crossAx val="319798704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12364,7 +12364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378192992"/>
+        <c:axId val="319798704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12425,7 +12425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133989792"/>
+        <c:crossAx val="319797136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30428,7 +30428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Verilog/Thesis_FPGA_Traffic_Light/output_file/Phan_tich.xlsx
+++ b/Verilog/Thesis_FPGA_Traffic_Light/output_file/Phan_tich.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16110" windowHeight="7635"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="16110" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3171,6 +3171,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCC6-45CE-85F4-99E53B362E12}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6208,6 +6213,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FCC6-45CE-85F4-99E53B362E12}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -9245,6 +9255,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FCC6-45CE-85F4-99E53B362E12}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -12282,6 +12297,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FCC6-45CE-85F4-99E53B362E12}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -30429,7 +30449,7 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
